--- a/data/star_schema/label/Risk_level.xlsx
+++ b/data/star_schema/label/Risk_level.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Year3-2\PBL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PBL_project\data\star_schema\label\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5563E970-8DB3-431C-B8EF-280D8089D756}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ECD3A5-01C7-4ACB-B28F-CAD1129E354F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D64E928E-549B-473A-816E-831CA7071FB9}"/>
+    <workbookView xWindow="-28920" yWindow="-2670" windowWidth="29040" windowHeight="15840" xr2:uid="{D64E928E-549B-473A-816E-831CA7071FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="55">
   <si>
     <t>cefoxSR1707004101</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Total cholesterol</t>
   </si>
   <si>
-    <t>https://med.mahidol.ac.th/cardio_vascular_risk/thai_cv_risk_score/#regat2</t>
-  </si>
-  <si>
     <t xml:space="preserve">10-&lt;20% </t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>&lt;10%</t>
   </si>
   <si>
-    <t>http://www.thaincd.com/document/file/download/knowledge/%E0%B9%82%E0%B8%A3%E0%B8%84%E0%B8%AB%E0%B8%B1%E0%B8%A7%E0%B9%83%E0%B8%88%E0%B9%81%E0%B8%A5%E0%B8%B0%E0%B8%AB%E0%B8%A5%E0%B8%AD%E0%B8%94%E0%B9%80%E0%B8%A5%E0%B8%B7%E0%B8%AD%E0%B8%94.pdf</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
@@ -193,12 +187,6 @@
   </si>
   <si>
     <t>Risk percentage (Use color table)</t>
-  </si>
-  <si>
-    <t>App</t>
-  </si>
-  <si>
-    <t>Color table</t>
   </si>
   <si>
     <t>Risk Level (Based on color table)</t>
@@ -210,7 +198,7 @@
     <r>
       <rPr>
         <sz val="16"/>
-        <rFont val="Calibri Light"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="major"/>
       </rPr>
@@ -224,7 +212,7 @@
     <r>
       <rPr>
         <sz val="16"/>
-        <rFont val="Calibri Light"/>
+        <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="major"/>
       </rPr>
@@ -239,32 +227,32 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
-      <name val="Calibri Light"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF333333"/>
-      <name val="Calibri Light"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -272,7 +260,7 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
-      <name val="Calibri Light"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -280,34 +268,63 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
-      <name val="Calibri Light"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
-      <u/>
       <sz val="16"/>
-      <color theme="10"/>
-      <name val="Calibri Light"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD961"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -316,16 +333,85 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -335,40 +421,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -380,6 +520,8 @@
   <colors>
     <mruColors>
       <color rgb="FFFF9999"/>
+      <color rgb="FFDDDDDD"/>
+      <color rgb="FFFFD961"/>
       <color rgb="FF00FF00"/>
     </mruColors>
   </colors>
@@ -691,113 +833,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDD80C4-46E3-49F3-ABF1-4B5AF41186E9}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.21875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="41.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" style="3" customWidth="1"/>
-    <col min="5" max="7" width="24" style="3" customWidth="1"/>
-    <col min="8" max="8" width="64.5546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="26.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="27.109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14.21875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="49.77734375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="44.109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="44" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
+      <c r="F1" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="M1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>74</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="15">
         <v>128</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="39" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -807,7 +951,7 @@
       <c r="C3" s="6">
         <v>73</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -820,12 +964,12 @@
         <v>6.2</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="1">
+        <v>52</v>
+      </c>
+      <c r="I3" s="16">
         <v>147</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="18">
         <v>150</v>
       </c>
       <c r="K3" s="6">
@@ -834,17 +978,17 @@
       <c r="L3" s="6">
         <v>39</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M3" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -854,7 +998,7 @@
       <c r="C4" s="6">
         <v>76</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -863,12 +1007,12 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="1">
+        <v>37</v>
+      </c>
+      <c r="I4" s="16">
         <v>140</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="18">
         <v>260</v>
       </c>
       <c r="K4" s="6">
@@ -877,17 +1021,17 @@
       <c r="L4" s="6">
         <v>68</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M4" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="39" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -897,7 +1041,7 @@
       <c r="C5" s="6">
         <v>81</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -908,70 +1052,70 @@
         <v>5</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="1">
+        <v>38</v>
+      </c>
+      <c r="I5" s="16">
         <v>167</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>77</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>88</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>5.5</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="H6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="15">
         <v>128</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="19">
         <v>212</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>123</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>73</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="M6" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -981,7 +1125,7 @@
       <c r="C7" s="6">
         <v>85</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -994,12 +1138,12 @@
         <v>6.4</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="1">
+        <v>37</v>
+      </c>
+      <c r="I7" s="16">
         <v>152</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="18">
         <v>244</v>
       </c>
       <c r="K7" s="6">
@@ -1008,17 +1152,17 @@
       <c r="L7" s="6">
         <v>116</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:15" ht="39" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1028,7 +1172,7 @@
       <c r="C8" s="6">
         <v>71</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -1039,62 +1183,62 @@
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="1">
+        <v>40</v>
+      </c>
+      <c r="I8" s="16">
         <v>160</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>92</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>108</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="15">
         <v>140</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="19">
         <v>195</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="39" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1104,7 +1248,7 @@
       <c r="C10" s="6">
         <v>78</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -1117,165 +1261,165 @@
         <v>7.2</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="1">
+        <v>53</v>
+      </c>
+      <c r="I10" s="16">
         <v>120</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="18">
         <v>210</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1" t="s">
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5">
+        <v>79</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="15">
+        <v>156</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O11" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="6">
-        <v>79</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="D12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="15">
+        <v>168</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5">
+        <v>71</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="1">
-        <v>156</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="15">
+        <v>150</v>
+      </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="O13" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="7">
+        <v>74</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6">
-        <v>51</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="1">
-        <v>168</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1" t="s">
+      <c r="O14" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="6">
-        <v>71</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="1">
-        <v>150</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="6">
-        <v>74</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1285,7 +1429,7 @@
       <c r="C15" s="6">
         <v>71</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -1294,23 +1438,23 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="1">
+        <v>37</v>
+      </c>
+      <c r="I15" s="16">
         <v>162</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1320,7 +1464,7 @@
       <c r="C16" s="6">
         <v>71</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -1329,149 +1473,157 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="1">
+        <v>42</v>
+      </c>
+      <c r="I16" s="16">
         <v>168</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1" t="s">
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="7">
+        <v>86</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="8">
+        <v>71</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="8">
+        <v>91</v>
+      </c>
+      <c r="G18" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="17">
+        <v>138</v>
+      </c>
+      <c r="J18" s="21">
+        <v>166</v>
+      </c>
+      <c r="K18" s="8">
+        <v>88</v>
+      </c>
+      <c r="L18" s="8">
+        <v>65</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="6">
-        <v>86</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="6">
-        <v>71</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="6">
-        <v>91</v>
-      </c>
-      <c r="G18" s="6">
-        <v>5.8</v>
-      </c>
-      <c r="H18" s="6" t="s">
+      <c r="O18" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="1">
-        <v>138</v>
-      </c>
-      <c r="J18" s="4">
-        <v>166</v>
-      </c>
-      <c r="K18" s="6">
-        <v>88</v>
-      </c>
-      <c r="L18" s="6">
-        <v>65</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B20:M20"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1" location="regat2" xr:uid="{0112F338-C3FA-4FB3-B12D-BAAC0189ABBD}"/>
-    <hyperlink ref="B21" r:id="rId2" xr:uid="{868033CA-624E-4E94-A618-337FBBF0A9B3}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/star_schema/label/Risk_level.xlsx
+++ b/data/star_schema/label/Risk_level.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PBL_project\data\star_schema\label\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ECD3A5-01C7-4ACB-B28F-CAD1129E354F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26D61047-D195-4080-AD05-6782D62B69FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2670" windowWidth="29040" windowHeight="15840" xr2:uid="{D64E928E-549B-473A-816E-831CA7071FB9}"/>
+    <workbookView xWindow="-28920" yWindow="-2160" windowWidth="29040" windowHeight="15840" xr2:uid="{D64E928E-549B-473A-816E-831CA7071FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="67">
   <si>
     <t>cefoxSR1707004101</t>
   </si>
@@ -221,6 +221,42 @@
   </si>
   <si>
     <t>Risk percentage (Use app)</t>
+  </si>
+  <si>
+    <t>cefoxSR1601000702</t>
+  </si>
+  <si>
+    <t>cefoxSR1707003502</t>
+  </si>
+  <si>
+    <t>cefoxSR1707004302</t>
+  </si>
+  <si>
+    <t>cefoxSR1707004502</t>
+  </si>
+  <si>
+    <t>cefoxSR1707004802</t>
+  </si>
+  <si>
+    <t>cefoxSR1707004902</t>
+  </si>
+  <si>
+    <t>cefoxSR1707005102</t>
+  </si>
+  <si>
+    <t>cefoxSR1707005302</t>
+  </si>
+  <si>
+    <t>cefoxSR1707005502</t>
+  </si>
+  <si>
+    <t>cefoxSR1707005602</t>
+  </si>
+  <si>
+    <t>cefoxSR1707005802</t>
+  </si>
+  <si>
+    <t>cefoxSR1707006002</t>
   </si>
 </sst>
 </file>
@@ -324,7 +360,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -333,13 +369,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -351,10 +387,40 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -366,23 +432,25 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -391,20 +459,39 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -421,7 +508,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -429,86 +516,107 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -833,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDD80C4-46E3-49F3-ABF1-4B5AF41186E9}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5" x14ac:dyDescent="0.2"/>
@@ -860,89 +968,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>74</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="5">
         <v>128</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="39" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -951,7 +1059,7 @@
       <c r="C3" s="6">
         <v>73</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -966,10 +1074,10 @@
       <c r="H3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="7">
         <v>147</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="8">
         <v>150</v>
       </c>
       <c r="K3" s="6">
@@ -978,18 +1086,18 @@
       <c r="L3" s="6">
         <v>39</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="22">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -998,7 +1106,7 @@
       <c r="C4" s="6">
         <v>76</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -1009,10 +1117,10 @@
       <c r="H4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="7">
         <v>140</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="8">
         <v>260</v>
       </c>
       <c r="K4" s="6">
@@ -1021,18 +1129,18 @@
       <c r="L4" s="6">
         <v>68</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="39" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1041,7 +1149,7 @@
       <c r="C5" s="6">
         <v>81</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -1054,69 +1162,69 @@
       <c r="H5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="7">
         <v>167</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16" t="s">
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>77</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>88</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>5.5</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="5">
         <v>128</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="10">
         <v>212</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>123</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>73</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="M6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="O6" s="21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="22">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1125,7 +1233,7 @@
       <c r="C7" s="6">
         <v>85</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -1140,10 +1248,10 @@
       <c r="H7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="7">
         <v>152</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="8">
         <v>244</v>
       </c>
       <c r="K7" s="6">
@@ -1152,18 +1260,18 @@
       <c r="L7" s="6">
         <v>116</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="M7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="N7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="39" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="22">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1172,7 +1280,7 @@
       <c r="C8" s="6">
         <v>71</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -1185,61 +1293,61 @@
       <c r="H8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="7">
         <v>160</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16" t="s">
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O8" s="16" t="s">
+      <c r="O8" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>92</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>108</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="5">
         <v>140</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="10">
         <v>195</v>
       </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15" t="s">
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="15" t="s">
+      <c r="O9" s="21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="39" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="22">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1248,7 +1356,7 @@
       <c r="C10" s="6">
         <v>78</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -1263,164 +1371,164 @@
       <c r="H10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="7">
         <v>120</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="8">
         <v>210</v>
       </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16" t="s">
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="16" t="s">
+      <c r="O10" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="20">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>79</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="5">
         <v>156</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15" t="s">
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O11" s="15" t="s">
+      <c r="O11" s="21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="20">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>51</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="5">
         <v>168</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15" t="s">
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="15" t="s">
+      <c r="O12" s="21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="20">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>71</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="5">
         <v>150</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15" t="s">
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="O13" s="21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+      <c r="A14" s="24">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="12">
         <v>74</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7" t="s">
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20" t="s">
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="O14" s="20" t="s">
+      <c r="O14" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="22">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1429,7 +1537,7 @@
       <c r="C15" s="6">
         <v>71</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -1440,22 +1548,22 @@
       <c r="H15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="7">
         <v>162</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16" t="s">
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="O15" s="16" t="s">
+      <c r="O15" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="22">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1464,7 +1572,7 @@
       <c r="C16" s="6">
         <v>71</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -1475,152 +1583,361 @@
       <c r="H16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="7">
         <v>168</v>
       </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16" t="s">
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="O16" s="16" t="s">
+      <c r="O16" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="A17" s="24">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="12">
         <v>86</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7" t="s">
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20" t="s">
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="O17" s="20" t="s">
+      <c r="O17" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="20">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="4">
         <v>71</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="4">
         <v>91</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="4">
         <v>5.8</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="5">
         <v>138</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="10">
         <v>166</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="4">
         <v>88</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="4">
         <v>65</v>
       </c>
-      <c r="M18" s="24" t="s">
+      <c r="M18" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="N18" s="17" t="s">
+      <c r="N18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="17" t="s">
+      <c r="O18" s="21" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+      <c r="A19" s="26">
+        <v>18</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="27"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="A20" s="26">
+        <v>19</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="27"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
     </row>
     <row r="21" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
+      <c r="A21" s="26">
+        <v>20</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="26">
+        <v>21</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="27"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="A23" s="26">
+        <v>22</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="27"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="26">
+        <v>23</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="27"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="26">
+        <v>24</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="27"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="27"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="26">
+        <v>26</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="27"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="26">
+        <v>27</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="27"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="26">
+        <v>28</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="27"/>
+    </row>
+    <row r="30" spans="1:19" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="28">
+        <v>29</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
